--- a/src/TestData/testData.xlsx
+++ b/src/TestData/testData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harpalsingh/Downloads/SeleniumCucumberBDD-master/TestNGUpgrade/src/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harpalsingh/Downloads/SeleniumCucumberBDD-master/UpgradeTestNG/src/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9236B66-4C72-F942-9B85-96EB9DA5A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0E29A-B7F5-0D43-92EF-0C0FF2F9C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0124C07F-7B5B-1247-A93E-68C99992CA89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0124C07F-7B5B-1247-A93E-68C99992CA89}"/>
   </bookViews>
   <sheets>
     <sheet name="validDOB" sheetId="2" r:id="rId1"/>
     <sheet name="InvalidDOB" sheetId="1" r:id="rId2"/>
+    <sheet name="getUsersAPIValidDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>firstName</t>
   </si>
@@ -105,6 +106,27 @@
   </si>
   <si>
     <t>TC02_InValidDOB</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>TC01_getSingleuser</t>
+  </si>
+  <si>
+    <t>TC02_getSingleuser</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TC03_UerNotFound</t>
+  </si>
+  <si>
+    <t>404</t>
   </si>
 </sst>
 </file>
@@ -169,10 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCCB44C-5541-6741-B5D0-51ABAA2624CA}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,4 +713,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD4C95D-3D1D-6641-9146-D1503848B50D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>